--- a/data/pca/factorExposure/factorExposure_2013-02-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-20.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0006254388128548638</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002004396889604815</v>
+      </c>
+      <c r="C2">
+        <v>-0.0318379354969958</v>
+      </c>
+      <c r="D2">
+        <v>-0.004885904785536224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001616952762840476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006255317145157501</v>
+      </c>
+      <c r="C4">
+        <v>-0.08453062606829857</v>
+      </c>
+      <c r="D4">
+        <v>-0.079401692429276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0003112471314940772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01387979541777216</v>
+      </c>
+      <c r="C6">
+        <v>-0.1131235235805275</v>
+      </c>
+      <c r="D6">
+        <v>-0.03200801299398678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001323941757706778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004935469261564148</v>
+      </c>
+      <c r="C7">
+        <v>-0.05725148249695788</v>
+      </c>
+      <c r="D7">
+        <v>-0.03520210420615957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0002697407635151832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.00573386920736636</v>
+      </c>
+      <c r="C8">
+        <v>-0.03891386644408459</v>
+      </c>
+      <c r="D8">
+        <v>-0.04316518463714521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003766503183809055</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004289789784990159</v>
+      </c>
+      <c r="C9">
+        <v>-0.07035828613918539</v>
+      </c>
+      <c r="D9">
+        <v>-0.07052841091373227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004720410498496344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005415650477027887</v>
+      </c>
+      <c r="C10">
+        <v>-0.05847627173553223</v>
+      </c>
+      <c r="D10">
+        <v>0.2024988362900176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002741776640503164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005495243210433356</v>
+      </c>
+      <c r="C11">
+        <v>-0.08033296861356898</v>
+      </c>
+      <c r="D11">
+        <v>-0.05981183514466364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0005352639699503772</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004128162705994464</v>
+      </c>
+      <c r="C12">
+        <v>-0.06445675044520463</v>
+      </c>
+      <c r="D12">
+        <v>-0.04556264901148888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003333530542601245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008692939574340875</v>
+      </c>
+      <c r="C13">
+        <v>-0.0663724085481695</v>
+      </c>
+      <c r="D13">
+        <v>-0.06459999653784826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001229387795448476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001617766073205429</v>
+      </c>
+      <c r="C14">
+        <v>-0.04655229470175149</v>
+      </c>
+      <c r="D14">
+        <v>-0.007658240442872796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009811244227344153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005988598663694428</v>
+      </c>
+      <c r="C15">
+        <v>-0.04239052627796643</v>
+      </c>
+      <c r="D15">
+        <v>-0.02851882911370902</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001156484700384901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005067726290213656</v>
+      </c>
+      <c r="C16">
+        <v>-0.06603987047190572</v>
+      </c>
+      <c r="D16">
+        <v>-0.04611608133439268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>9.568406758323393e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008798552794539142</v>
+      </c>
+      <c r="C20">
+        <v>-0.0657933808496956</v>
+      </c>
+      <c r="D20">
+        <v>-0.04502289665693139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005211612498678656</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009815796755021174</v>
+      </c>
+      <c r="C21">
+        <v>-0.02278324094736463</v>
+      </c>
+      <c r="D21">
+        <v>-0.0330610687840471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01753907520039231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006718426506611141</v>
+      </c>
+      <c r="C22">
+        <v>-0.0951645334139935</v>
+      </c>
+      <c r="D22">
+        <v>-0.1019516281410938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01784978992607858</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006537068254788894</v>
+      </c>
+      <c r="C23">
+        <v>-0.09596921464556492</v>
+      </c>
+      <c r="D23">
+        <v>-0.1021948583652334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001889142059627822</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005155379022922474</v>
+      </c>
+      <c r="C24">
+        <v>-0.07544292488990009</v>
+      </c>
+      <c r="D24">
+        <v>-0.05916854105410314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003760170079498028</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002851476481750244</v>
+      </c>
+      <c r="C25">
+        <v>-0.07755222497203319</v>
+      </c>
+      <c r="D25">
+        <v>-0.06589629345757447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005528666528271796</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003574526027206783</v>
+      </c>
+      <c r="C26">
+        <v>-0.04156445363755877</v>
+      </c>
+      <c r="D26">
+        <v>-0.02395824209109135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.003747031354713234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0008806311612654378</v>
+      </c>
+      <c r="C28">
+        <v>-0.1078746295095506</v>
+      </c>
+      <c r="D28">
+        <v>0.3173269775689772</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.00100429592781107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003140566445213018</v>
+      </c>
+      <c r="C29">
+        <v>-0.04944841378676978</v>
+      </c>
+      <c r="D29">
+        <v>-0.004091619848318837</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.00303304322238479</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009103466885706806</v>
+      </c>
+      <c r="C30">
+        <v>-0.1427786538125471</v>
+      </c>
+      <c r="D30">
+        <v>-0.1008656383805746</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0007356809938174675</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006187945023746268</v>
+      </c>
+      <c r="C31">
+        <v>-0.04549600001216481</v>
+      </c>
+      <c r="D31">
+        <v>-0.03189391006796064</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0003614092804719351</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003958118647013597</v>
+      </c>
+      <c r="C32">
+        <v>-0.0422234178663436</v>
+      </c>
+      <c r="D32">
+        <v>-0.0181867493455637</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002719492972672394</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008207965122728946</v>
+      </c>
+      <c r="C33">
+        <v>-0.08682423141576431</v>
+      </c>
+      <c r="D33">
+        <v>-0.06896539245784868</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004275937302546166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003944991387030928</v>
+      </c>
+      <c r="C34">
+        <v>-0.05776242401480528</v>
+      </c>
+      <c r="D34">
+        <v>-0.05123398678808602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002507567710568162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004932825253721992</v>
+      </c>
+      <c r="C35">
+        <v>-0.03991930960802379</v>
+      </c>
+      <c r="D35">
+        <v>-0.01360493688738591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004132830520177728</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001300776206081307</v>
+      </c>
+      <c r="C36">
+        <v>-0.024351428183348</v>
+      </c>
+      <c r="D36">
+        <v>-0.02244523083137304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002746173232951754</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009546624543220762</v>
+      </c>
+      <c r="C38">
+        <v>-0.03479542938356531</v>
+      </c>
+      <c r="D38">
+        <v>-0.01810879254152995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01202464915127044</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0007067878266537131</v>
+      </c>
+      <c r="C39">
+        <v>-0.1171068444617535</v>
+      </c>
+      <c r="D39">
+        <v>-0.07165194544312879</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008757945403020842</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002262408396632797</v>
+      </c>
+      <c r="C40">
+        <v>-0.08842422473106164</v>
+      </c>
+      <c r="D40">
+        <v>-0.01579376975037985</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0003187704423610961</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007281515502485659</v>
+      </c>
+      <c r="C41">
+        <v>-0.03825283836730239</v>
+      </c>
+      <c r="D41">
+        <v>-0.03478635205841922</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003102296400617435</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003724715286310469</v>
+      </c>
+      <c r="C43">
+        <v>-0.05241169039950026</v>
+      </c>
+      <c r="D43">
+        <v>-0.02395227871503349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002565077572248999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003140633306020551</v>
+      </c>
+      <c r="C44">
+        <v>-0.1104193745781413</v>
+      </c>
+      <c r="D44">
+        <v>-0.06930034066485037</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.00156056984031488</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002291794589546228</v>
+      </c>
+      <c r="C46">
+        <v>-0.03362008631372949</v>
+      </c>
+      <c r="D46">
+        <v>-0.03042023147093497</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0004747271739456869</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002698178014507611</v>
+      </c>
+      <c r="C47">
+        <v>-0.03715737740295733</v>
+      </c>
+      <c r="D47">
+        <v>-0.02490244393311969</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003700581517549718</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006493536303638337</v>
+      </c>
+      <c r="C48">
+        <v>-0.03001291611925002</v>
+      </c>
+      <c r="D48">
+        <v>-0.03204648903092711</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01232983135320926</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01508687180015437</v>
+      </c>
+      <c r="C49">
+        <v>-0.1820865895222926</v>
+      </c>
+      <c r="D49">
+        <v>-0.01168491601952492</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0004460595280257661</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003599352094628222</v>
+      </c>
+      <c r="C50">
+        <v>-0.04401780702270303</v>
+      </c>
+      <c r="D50">
+        <v>-0.03535655181833439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007812044153155352</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004473590786620272</v>
+      </c>
+      <c r="C51">
+        <v>-0.02681226849958622</v>
+      </c>
+      <c r="D51">
+        <v>-0.02002199785783433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001106699426111677</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02065935636297109</v>
+      </c>
+      <c r="C53">
+        <v>-0.1690039650448828</v>
+      </c>
+      <c r="D53">
+        <v>-0.03772654033773113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001507580347996616</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008676515309267033</v>
+      </c>
+      <c r="C54">
+        <v>-0.05536435234059889</v>
+      </c>
+      <c r="D54">
+        <v>-0.0417762198034519</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003746700401104571</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009503677346604031</v>
+      </c>
+      <c r="C55">
+        <v>-0.1094830406933375</v>
+      </c>
+      <c r="D55">
+        <v>-0.04552534131886492</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003547342272300587</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02008246475890773</v>
+      </c>
+      <c r="C56">
+        <v>-0.1749822883247721</v>
+      </c>
+      <c r="D56">
+        <v>-0.03650949814784164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007444620847623987</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01964219146347103</v>
+      </c>
+      <c r="C58">
+        <v>-0.1119166720151029</v>
+      </c>
+      <c r="D58">
+        <v>-0.04758840934920905</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006132139188473649</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009490942340991161</v>
+      </c>
+      <c r="C59">
+        <v>-0.1625013855152933</v>
+      </c>
+      <c r="D59">
+        <v>0.3096434899585179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003222680129388889</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.0234092971472983</v>
+      </c>
+      <c r="C60">
+        <v>-0.2209877285253711</v>
+      </c>
+      <c r="D60">
+        <v>-0.02916854189542657</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01378456969917533</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001803835769575651</v>
+      </c>
+      <c r="C61">
+        <v>-0.09561923091523639</v>
+      </c>
+      <c r="D61">
+        <v>-0.05763498167940542</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1684432599538312</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1445883747141904</v>
+      </c>
+      <c r="C62">
+        <v>-0.09059809680766029</v>
+      </c>
+      <c r="D62">
+        <v>-0.05365633164677139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001142272302500666</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006243938676756085</v>
+      </c>
+      <c r="C63">
+        <v>-0.05608435442375705</v>
+      </c>
+      <c r="D63">
+        <v>-0.02375889724503479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.001521565615392919</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01507621364495618</v>
+      </c>
+      <c r="C64">
+        <v>-0.1044192156136208</v>
+      </c>
+      <c r="D64">
+        <v>-0.06044864523773234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002551843531646248</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01767808648586285</v>
+      </c>
+      <c r="C65">
+        <v>-0.1213780220993399</v>
+      </c>
+      <c r="D65">
+        <v>-0.01758203609797137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.006896074171279735</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01289615723863554</v>
+      </c>
+      <c r="C66">
+        <v>-0.1599895726758609</v>
+      </c>
+      <c r="D66">
+        <v>-0.1130393032280254</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.004021000086336259</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01568300856998278</v>
+      </c>
+      <c r="C67">
+        <v>-0.06579828139204909</v>
+      </c>
+      <c r="D67">
+        <v>-0.02605387632598404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.00583699349769115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0006517888663486191</v>
+      </c>
+      <c r="C68">
+        <v>-0.08741410507555025</v>
+      </c>
+      <c r="D68">
+        <v>0.2547020639489894</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002486110610933386</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006081993396327605</v>
+      </c>
+      <c r="C69">
+        <v>-0.05023304069696925</v>
+      </c>
+      <c r="D69">
+        <v>-0.03979264800125722</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0003100860253129145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001826830537671319</v>
+      </c>
+      <c r="C70">
+        <v>-0.002661333909683551</v>
+      </c>
+      <c r="D70">
+        <v>-0.001450785466467902</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>3.240749613315931e-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005906860301348071</v>
+      </c>
+      <c r="C71">
+        <v>-0.09754916973643715</v>
+      </c>
+      <c r="D71">
+        <v>0.3046212980524602</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004229580649251741</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01588913269915667</v>
+      </c>
+      <c r="C72">
+        <v>-0.153302760777634</v>
+      </c>
+      <c r="D72">
+        <v>-0.02309392143158353</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01152516690208668</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02963544821253577</v>
+      </c>
+      <c r="C73">
+        <v>-0.2749282435958983</v>
+      </c>
+      <c r="D73">
+        <v>-0.04599610030699487</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004418252366036579</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001791137004136337</v>
+      </c>
+      <c r="C74">
+        <v>-0.1053447054007105</v>
+      </c>
+      <c r="D74">
+        <v>-0.03797253145916969</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002231254531805535</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01093087865805314</v>
+      </c>
+      <c r="C75">
+        <v>-0.1281218807134665</v>
+      </c>
+      <c r="D75">
+        <v>-0.0234672831671922</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009812604048156504</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02177254849227793</v>
+      </c>
+      <c r="C76">
+        <v>-0.1498673654721024</v>
+      </c>
+      <c r="D76">
+        <v>-0.06664145239555522</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001375390862868208</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02360279595368948</v>
+      </c>
+      <c r="C77">
+        <v>-0.1306741635022834</v>
+      </c>
+      <c r="D77">
+        <v>-0.06105399951976569</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0009482333904231863</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01447438511036895</v>
+      </c>
+      <c r="C78">
+        <v>-0.09495487587759177</v>
+      </c>
+      <c r="D78">
+        <v>-0.06661693263773333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02433975398296251</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.0376411917283325</v>
+      </c>
+      <c r="C79">
+        <v>-0.1564126628480808</v>
+      </c>
+      <c r="D79">
+        <v>-0.038789081377693</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004763627306720501</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01061890588962261</v>
+      </c>
+      <c r="C80">
+        <v>-0.04310498831648447</v>
+      </c>
+      <c r="D80">
+        <v>-0.02832055973632793</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001190718760581007</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01516540448076997</v>
+      </c>
+      <c r="C81">
+        <v>-0.1269733857260609</v>
+      </c>
+      <c r="D81">
+        <v>-0.04337248617396139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006190397845786145</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01988044131373764</v>
+      </c>
+      <c r="C82">
+        <v>-0.1427198236368988</v>
+      </c>
+      <c r="D82">
+        <v>-0.04270612797134067</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009073980194514114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01005283064192918</v>
+      </c>
+      <c r="C83">
+        <v>-0.05680000660352361</v>
+      </c>
+      <c r="D83">
+        <v>-0.05600594469595933</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.0137507460237079</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01165500035646044</v>
+      </c>
+      <c r="C84">
+        <v>-0.03661781745630784</v>
+      </c>
+      <c r="D84">
+        <v>0.009619933700685545</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01462127290922759</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02810926972387453</v>
+      </c>
+      <c r="C85">
+        <v>-0.1263801729929992</v>
+      </c>
+      <c r="D85">
+        <v>-0.04931879050517002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0003860380302232265</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005475793279648721</v>
+      </c>
+      <c r="C86">
+        <v>-0.04965368084860378</v>
+      </c>
+      <c r="D86">
+        <v>-0.02311764926782283</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003889647610966529</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01034091140852354</v>
+      </c>
+      <c r="C87">
+        <v>-0.1321129430672804</v>
+      </c>
+      <c r="D87">
+        <v>-0.06968143602289328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01248416226207995</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002848100093882999</v>
+      </c>
+      <c r="C88">
+        <v>-0.06765456247825938</v>
+      </c>
+      <c r="D88">
+        <v>-0.01390447331701567</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01365724787072758</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001475254649964718</v>
+      </c>
+      <c r="C89">
+        <v>-0.147058105814633</v>
+      </c>
+      <c r="D89">
+        <v>0.3414137316703038</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001915359372896117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006700922770192257</v>
+      </c>
+      <c r="C90">
+        <v>-0.1220833981774446</v>
+      </c>
+      <c r="D90">
+        <v>0.3277703613781736</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001381347417325547</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01051142678257111</v>
+      </c>
+      <c r="C91">
+        <v>-0.1031769837413059</v>
+      </c>
+      <c r="D91">
+        <v>-0.0247973292301118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008010439740834359</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0008031229197776612</v>
+      </c>
+      <c r="C92">
+        <v>-0.1374239894655691</v>
+      </c>
+      <c r="D92">
+        <v>0.3302817776281627</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0002519011408780368</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004808795362147907</v>
+      </c>
+      <c r="C93">
+        <v>-0.1060295420538576</v>
+      </c>
+      <c r="D93">
+        <v>0.3078556546473449</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004246847415334016</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02251245735397025</v>
+      </c>
+      <c r="C94">
+        <v>-0.1501428455978418</v>
+      </c>
+      <c r="D94">
+        <v>-0.05149819144803455</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004771931688363218</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01639397685262302</v>
+      </c>
+      <c r="C95">
+        <v>-0.1248074628299461</v>
+      </c>
+      <c r="D95">
+        <v>-0.05992992754961023</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001333190208728957</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03555126552722819</v>
+      </c>
+      <c r="C97">
+        <v>-0.2097648686862258</v>
+      </c>
+      <c r="D97">
+        <v>0.005631443317235992</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003524034071335916</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03650188356156484</v>
+      </c>
+      <c r="C98">
+        <v>-0.2458181351215383</v>
+      </c>
+      <c r="D98">
+        <v>-0.04793568268523772</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9838889057628579</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9823636375154509</v>
+      </c>
+      <c r="C99">
+        <v>0.1148032070546219</v>
+      </c>
+      <c r="D99">
+        <v>0.02875592198883742</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009075800876388487</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003176976903854787</v>
+      </c>
+      <c r="C101">
+        <v>-0.04963919280935215</v>
+      </c>
+      <c r="D101">
+        <v>-0.004155851718163571</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
